--- a/SEMANA 7/26 de octubre.xlsx
+++ b/SEMANA 7/26 de octubre.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kick\Desktop\MATEMATICAS FINANCIERA\SEMANA 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kick\Desktop\MATEMATICAS FINANCIERA\prueba\MF\SEMANA 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{124632C9-0A92-4567-B3FD-45C651F77572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1112CEE-2F15-434E-92F0-2B37FC253B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10260" yWindow="48" windowWidth="12660" windowHeight="12312" firstSheet="16" activeTab="17" xr2:uid="{E581A421-F443-4CC0-8F82-30A63A821E48}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="16" activeTab="17" xr2:uid="{E581A421-F443-4CC0-8F82-30A63A821E48}"/>
   </bookViews>
   <sheets>
     <sheet name="Interes compuesto" sheetId="1" r:id="rId1"/>
@@ -1605,6 +1605,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="70" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="76" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="75" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="79" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="64" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="78" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1647,13 +1708,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1662,97 +1720,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="70" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="76" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="75" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="79" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="64" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="78" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
@@ -2078,22 +2078,22 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:10" ht="31.2" x14ac:dyDescent="0.7">
-      <c r="F1" s="145" t="s">
+      <c r="F1" s="206" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="206"/>
     </row>
     <row r="2" spans="2:10" ht="46.2" x14ac:dyDescent="0.85">
-      <c r="E2" s="144" t="s">
+      <c r="E2" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="205"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
@@ -2157,12 +2157,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C2" s="147" t="s">
+      <c r="C2" s="208" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="149"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="210"/>
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C3" s="95"/>
@@ -2267,19 +2267,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C2" s="150" t="s">
+      <c r="C2" s="211" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="147" t="s">
+      <c r="B4" s="208" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="149"/>
+      <c r="C4" s="209"/>
+      <c r="D4" s="209"/>
+      <c r="E4" s="210"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="95"/>
@@ -2370,16 +2370,16 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C2" s="150" t="s">
+      <c r="C2" s="211" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="211"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
@@ -2436,13 +2436,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C2" s="155" t="s">
+      <c r="C2" s="216" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="157"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="217"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="218"/>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C3" s="126"/>
@@ -2487,10 +2487,10 @@
         <f>3*2</f>
         <v>6</v>
       </c>
-      <c r="F6" s="153" t="s">
+      <c r="F6" s="214" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="154"/>
+      <c r="G6" s="215"/>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C7" s="125"/>
@@ -2538,19 +2538,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
     </row>
     <row r="3" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D3" s="155" t="s">
+      <c r="D3" s="216" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="157"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="217"/>
+      <c r="G3" s="217"/>
+      <c r="H3" s="218"/>
     </row>
     <row r="4" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D4" s="135"/>
@@ -2620,10 +2620,10 @@
         <f>1.5*12</f>
         <v>18</v>
       </c>
-      <c r="G9" s="153" t="s">
+      <c r="G9" s="214" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="154"/>
+      <c r="H9" s="215"/>
     </row>
     <row r="10" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D10" s="139"/>
@@ -2671,11 +2671,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D2" s="150" t="s">
+      <c r="D2" s="211" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="211"/>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
@@ -2738,143 +2738,143 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C3" s="167" t="s">
+      <c r="C3" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="158" t="s">
+      <c r="D3" s="144" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="185"/>
-      <c r="F3" s="186">
+      <c r="E3" s="161"/>
+      <c r="F3" s="162">
         <v>80000</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="17"/>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C4" s="168" t="s">
+      <c r="C4" s="148" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="187"/>
-      <c r="F4" s="188">
+      <c r="E4" s="163"/>
+      <c r="F4" s="164">
         <v>0.25</v>
       </c>
-      <c r="G4" s="176"/>
-      <c r="H4" s="177"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="155"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C5" s="174"/>
-      <c r="D5" s="189" t="s">
+      <c r="C5" s="152"/>
+      <c r="D5" s="165" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="50"/>
-      <c r="F5" s="190">
+      <c r="F5" s="166">
         <v>2</v>
       </c>
-      <c r="G5" s="176"/>
-      <c r="H5" s="177"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="155"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C6" s="174"/>
+      <c r="C6" s="152"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="185"/>
+      <c r="E6" s="161"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="176"/>
-      <c r="H6" s="177"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="155"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C7" s="174"/>
+      <c r="C7" s="152"/>
       <c r="D7" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="191">
+      <c r="E7" s="167">
         <f>PV(F4,F5,,-F3)</f>
         <v>51200</v>
       </c>
-      <c r="F7" s="160">
+      <c r="F7" s="146">
         <f>F3/((1+F4)^F5)</f>
         <v>51200</v>
       </c>
-      <c r="G7" s="176"/>
-      <c r="H7" s="177"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="155"/>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C8" s="175"/>
+      <c r="C8" s="153"/>
       <c r="D8" s="50"/>
-      <c r="E8" s="192"/>
+      <c r="E8" s="168"/>
       <c r="F8" s="57"/>
-      <c r="G8" s="176"/>
-      <c r="H8" s="177"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="155"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C9" s="170" t="s">
+      <c r="C9" s="224" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="171"/>
-      <c r="E9" s="171"/>
-      <c r="F9" s="169">
+      <c r="D9" s="225"/>
+      <c r="E9" s="225"/>
+      <c r="F9" s="149">
         <f>F7</f>
         <v>51200</v>
       </c>
-      <c r="G9" s="176"/>
-      <c r="H9" s="177"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="155"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C10" s="179"/>
-      <c r="D10" s="180"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="176"/>
-      <c r="H10" s="177"/>
+      <c r="C10" s="157"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="155"/>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C11" s="170" t="s">
+      <c r="C11" s="224" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="171"/>
-      <c r="E11" s="171"/>
-      <c r="F11" s="172">
+      <c r="D11" s="225"/>
+      <c r="E11" s="225"/>
+      <c r="F11" s="150">
         <v>50000</v>
       </c>
-      <c r="G11" s="176"/>
-      <c r="H11" s="177"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="155"/>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C12" s="178"/>
-      <c r="D12" s="182"/>
-      <c r="E12" s="182"/>
-      <c r="F12" s="182"/>
-      <c r="G12" s="178"/>
-      <c r="H12" s="177"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="155"/>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C13" s="165" t="s">
+      <c r="C13" s="219" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="166"/>
-      <c r="E13" s="183">
+      <c r="D13" s="220"/>
+      <c r="E13" s="226">
         <f>F9-F11</f>
         <v>1200</v>
       </c>
-      <c r="F13" s="184"/>
-      <c r="G13" s="162" t="s">
+      <c r="F13" s="227"/>
+      <c r="G13" s="223" t="s">
         <v>89</v>
       </c>
-      <c r="H13" s="166"/>
+      <c r="H13" s="220"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="163"/>
-      <c r="D14" s="164"/>
-      <c r="E14" s="182"/>
-      <c r="F14" s="182"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="164"/>
+      <c r="C14" s="221"/>
+      <c r="D14" s="222"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="160"/>
+      <c r="G14" s="221"/>
+      <c r="H14" s="222"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F25" s="173"/>
+      <c r="F25" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2904,13 +2904,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C1" s="193"/>
-      <c r="D1" s="148" t="s">
+      <c r="C1" s="169"/>
+      <c r="D1" s="209" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="194"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="170"/>
     </row>
     <row r="2" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C2" s="21"/>
@@ -2932,7 +2932,7 @@
       <c r="F3" s="6">
         <v>200000</v>
       </c>
-      <c r="G3" s="196">
+      <c r="G3" s="172">
         <v>300000</v>
       </c>
     </row>
@@ -2941,13 +2941,13 @@
       <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="159">
+      <c r="E4" s="145">
         <v>0.4</v>
       </c>
-      <c r="F4" s="159">
+      <c r="F4" s="145">
         <v>0.4</v>
       </c>
-      <c r="G4" s="197">
+      <c r="G4" s="173">
         <v>0.4</v>
       </c>
     </row>
@@ -2978,15 +2978,15 @@
       <c r="D7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="198">
+      <c r="E7" s="174">
         <f>E3/((1+E4)^E5)</f>
         <v>71428.571428571435</v>
       </c>
-      <c r="F7" s="198">
+      <c r="F7" s="174">
         <f>F3/((1+F4)^F5)</f>
         <v>102040.81632653062</v>
       </c>
-      <c r="G7" s="199">
+      <c r="G7" s="175">
         <f>G3/((1+G4)^G5)</f>
         <v>109329.44606413996</v>
       </c>
@@ -2999,16 +2999,16 @@
       <c r="G8" s="103"/>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D9" s="193"/>
-      <c r="E9" s="200"/>
-      <c r="F9" s="200"/>
-      <c r="G9" s="194"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="176"/>
+      <c r="F9" s="176"/>
+      <c r="G9" s="170"/>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D10" s="201" t="s">
+      <c r="D10" s="228" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="161"/>
+      <c r="E10" s="229"/>
       <c r="F10" s="6">
         <f>E7+F7+G7</f>
         <v>282798.83381924202</v>
@@ -3016,33 +3016,33 @@
       <c r="G10" s="85"/>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D11" s="201" t="s">
+      <c r="D11" s="228" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="161"/>
+      <c r="E11" s="229"/>
       <c r="F11" s="6">
         <v>350000</v>
       </c>
       <c r="G11" s="85"/>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D12" s="201" t="s">
+      <c r="D12" s="228" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="161"/>
+      <c r="E12" s="229"/>
       <c r="F12" s="6">
         <f>F10-F11</f>
         <v>-67201.16618075798</v>
       </c>
-      <c r="G12" s="202" t="s">
+      <c r="G12" s="230" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D13" s="195"/>
+      <c r="D13" s="171"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="202"/>
+      <c r="G13" s="230"/>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D14" s="21"/>
@@ -3067,8 +3067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9ABCC6-12C9-4941-9007-839BA2C5C7B1}">
   <dimension ref="D1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3079,82 +3079,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D1" s="150" t="s">
+      <c r="D1" s="211" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
     </row>
     <row r="3" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D3" s="203" t="s">
+      <c r="D3" s="177" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="204" t="s">
+      <c r="E3" s="178" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="212">
+      <c r="F3" s="185">
         <v>120000</v>
       </c>
-      <c r="G3" s="218"/>
-      <c r="H3" s="218"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
     </row>
     <row r="4" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D4" s="205" t="s">
+      <c r="D4" s="179" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="213">
+      <c r="F4" s="186">
         <v>0.15</v>
       </c>
       <c r="G4" s="100"/>
       <c r="H4" s="100"/>
     </row>
     <row r="5" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D5" s="206"/>
-      <c r="E5" s="189" t="s">
+      <c r="D5" s="180"/>
+      <c r="E5" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="214">
+      <c r="F5" s="187">
         <v>2</v>
       </c>
       <c r="G5" s="100"/>
       <c r="H5" s="100"/>
     </row>
     <row r="6" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D6" s="206"/>
-      <c r="E6" s="226"/>
-      <c r="F6" s="227"/>
+      <c r="D6" s="180"/>
+      <c r="E6" s="198"/>
+      <c r="F6" s="199"/>
       <c r="G6" s="99"/>
       <c r="H6" s="100"/>
     </row>
     <row r="7" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D7" s="206"/>
+      <c r="D7" s="180"/>
       <c r="E7" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="215">
+      <c r="F7" s="188">
         <f>F3/((1+F4)^F5)</f>
         <v>90737.240075614376</v>
       </c>
-      <c r="G7" s="209"/>
+      <c r="G7" s="182"/>
       <c r="H7" s="100"/>
     </row>
     <row r="8" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D8" s="207"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="224"/>
-      <c r="G8" s="225"/>
+      <c r="D8" s="181"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="197"/>
       <c r="H8" s="100"/>
     </row>
     <row r="9" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D9" s="208" t="s">
+      <c r="D9" s="232" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="171"/>
-      <c r="F9" s="171"/>
-      <c r="G9" s="211">
+      <c r="E9" s="225"/>
+      <c r="F9" s="225"/>
+      <c r="G9" s="184">
         <f>F7</f>
         <v>90737.240075614376</v>
       </c>
@@ -3162,36 +3162,36 @@
     </row>
     <row r="10" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D10" s="97"/>
-      <c r="E10" s="222"/>
-      <c r="F10" s="222"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="194"/>
       <c r="G10" s="99"/>
       <c r="H10" s="100"/>
     </row>
     <row r="11" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D11" s="216" t="s">
+      <c r="D11" s="233" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="210">
+      <c r="E11" s="207"/>
+      <c r="F11" s="207"/>
+      <c r="G11" s="183">
         <v>95000</v>
       </c>
       <c r="H11" s="100"/>
     </row>
     <row r="12" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D12" s="219"/>
-      <c r="E12" s="220"/>
-      <c r="F12" s="220"/>
-      <c r="G12" s="221"/>
+      <c r="D12" s="191"/>
+      <c r="E12" s="192"/>
+      <c r="F12" s="192"/>
+      <c r="G12" s="193"/>
       <c r="H12" s="100"/>
     </row>
     <row r="13" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D13" s="155" t="s">
+      <c r="D13" s="216" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="156"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="217">
+      <c r="E13" s="217"/>
+      <c r="F13" s="217"/>
+      <c r="G13" s="189">
         <f>G9-G11</f>
         <v>-4262.7599243856239</v>
       </c>
@@ -3207,11 +3207,11 @@
       <c r="H14" s="99"/>
     </row>
     <row r="16" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D16" s="150" t="s">
+      <c r="D16" s="211" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="150"/>
-      <c r="F16" s="150"/>
+      <c r="E16" s="211"/>
+      <c r="F16" s="211"/>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E17" s="22"/>
@@ -3223,7 +3223,7 @@
       <c r="D18" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="230" t="s">
+      <c r="E18" s="202" t="s">
         <v>70</v>
       </c>
       <c r="F18" s="6">
@@ -3232,7 +3232,7 @@
       <c r="G18" s="6">
         <v>230000</v>
       </c>
-      <c r="H18" s="196">
+      <c r="H18" s="172">
         <v>310000</v>
       </c>
     </row>
@@ -3246,10 +3246,10 @@
       <c r="F19" s="27">
         <v>0.12</v>
       </c>
-      <c r="G19" s="159">
+      <c r="G19" s="145">
         <v>0.12</v>
       </c>
-      <c r="H19" s="197">
+      <c r="H19" s="173">
         <v>0.12</v>
       </c>
     </row>
@@ -3280,15 +3280,15 @@
       <c r="E22" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="198">
+      <c r="F22" s="174">
         <f>F18/((1+F19)^F20)</f>
         <v>151785.71428571426</v>
       </c>
-      <c r="G22" s="198">
+      <c r="G22" s="174">
         <f>G18/((1+G19)^G20)</f>
         <v>183354.59183673467</v>
       </c>
-      <c r="H22" s="199">
+      <c r="H22" s="175">
         <f>H18/((1+H19)^H20)</f>
         <v>220651.87682215738</v>
       </c>
@@ -3302,54 +3302,54 @@
     </row>
     <row r="24" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D24" s="124"/>
-      <c r="E24" s="193"/>
+      <c r="E24" s="169"/>
       <c r="F24" s="26"/>
-      <c r="G24" s="232"/>
-      <c r="H24" s="228"/>
+      <c r="G24" s="203"/>
+      <c r="H24" s="200"/>
     </row>
     <row r="25" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D25" s="124"/>
-      <c r="E25" s="201" t="s">
+      <c r="E25" s="228" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="161"/>
-      <c r="G25" s="233">
+      <c r="F25" s="229"/>
+      <c r="G25" s="204">
         <f>F22+G22+H22</f>
         <v>555792.18294460629</v>
       </c>
-      <c r="H25" s="229"/>
+      <c r="H25" s="201"/>
     </row>
     <row r="26" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D26" s="124"/>
-      <c r="E26" s="201" t="s">
+      <c r="E26" s="228" t="s">
         <v>91</v>
       </c>
       <c r="F26" s="231"/>
-      <c r="G26" s="233">
+      <c r="G26" s="204">
         <v>350000</v>
       </c>
-      <c r="H26" s="229"/>
+      <c r="H26" s="201"/>
     </row>
     <row r="27" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D27" s="124"/>
-      <c r="E27" s="201" t="s">
+      <c r="E27" s="228" t="s">
         <v>92</v>
       </c>
-      <c r="F27" s="161"/>
-      <c r="G27" s="233">
+      <c r="F27" s="229"/>
+      <c r="G27" s="204">
         <f>G25-G26</f>
         <v>205792.18294460629</v>
       </c>
-      <c r="H27" s="202" t="s">
+      <c r="H27" s="230" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="28" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D28" s="124"/>
-      <c r="E28" s="195"/>
-      <c r="F28" s="187"/>
-      <c r="G28" s="214"/>
-      <c r="H28" s="202"/>
+      <c r="E28" s="171"/>
+      <c r="F28" s="163"/>
+      <c r="G28" s="187"/>
+      <c r="H28" s="230"/>
     </row>
     <row r="29" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D29" s="125"/>
@@ -3391,11 +3391,11 @@
   <sheetData>
     <row r="1" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
-      <c r="D1" s="146" t="s">
+      <c r="D1" s="207" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="3:7" x14ac:dyDescent="0.3">
@@ -3517,11 +3517,11 @@
       <c r="G11" s="32"/>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C14" s="147" t="s">
+      <c r="C14" s="208" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="148"/>
-      <c r="E14" s="149"/>
+      <c r="D14" s="209"/>
+      <c r="E14" s="210"/>
       <c r="F14" s="33"/>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.3">
@@ -3600,11 +3600,11 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D2" s="150" t="s">
+      <c r="D2" s="211" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3625,15 +3625,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -3757,10 +3757,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C2" s="150" t="s">
+      <c r="C2" s="211" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="150"/>
+      <c r="D2" s="211"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="50" t="s">
@@ -3907,10 +3907,10 @@
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C17" s="150" t="s">
+      <c r="C17" s="211" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="150"/>
+      <c r="D17" s="211"/>
       <c r="E17" s="54">
         <f>E12+E13+E14+E15+E16</f>
         <v>148832</v>
@@ -3936,11 +3936,11 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D2" s="150" t="s">
+      <c r="D2" s="211" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="211"/>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
@@ -4015,11 +4015,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C1" s="151" t="s">
+      <c r="C1" s="212" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="146"/>
-      <c r="E1" s="152"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="213"/>
     </row>
     <row r="2" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C2" s="82"/>
@@ -4078,11 +4078,11 @@
       <c r="E8" s="57"/>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C10" s="151" t="s">
+      <c r="C10" s="212" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="146"/>
-      <c r="E10" s="152"/>
+      <c r="D10" s="207"/>
+      <c r="E10" s="213"/>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C11" s="79"/>
@@ -4160,11 +4160,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="208" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="149"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="210"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="97"/>
@@ -4218,11 +4218,11 @@
       <c r="D8" s="99"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="147" t="s">
+      <c r="B11" s="208" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="148"/>
-      <c r="D11" s="149"/>
+      <c r="C11" s="209"/>
+      <c r="D11" s="210"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="95"/>
@@ -4296,11 +4296,11 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D1" s="150" t="s">
+      <c r="D1" s="211" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">

--- a/SEMANA 7/26 de octubre.xlsx
+++ b/SEMANA 7/26 de octubre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kick\Desktop\MATEMATICAS FINANCIERA\prueba\MF\SEMANA 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1112CEE-2F15-434E-92F0-2B37FC253B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27537BBE-D523-475C-8130-5166A2B6989B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="16" activeTab="17" xr2:uid="{E581A421-F443-4CC0-8F82-30A63A821E48}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="98">
   <si>
     <t>Interes compuesto</t>
   </si>
@@ -341,6 +341,9 @@
   </si>
   <si>
     <t>Es conveniente hacer inversion</t>
+  </si>
+  <si>
+    <t>prueba 1</t>
   </si>
 </sst>
 </file>
@@ -3065,10 +3068,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9ABCC6-12C9-4941-9007-839BA2C5C7B1}">
-  <dimension ref="D1:H29"/>
+  <dimension ref="D1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3078,14 +3081,14 @@
     <col min="8" max="8" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D1" s="211" t="s">
         <v>90</v>
       </c>
       <c r="E1" s="211"/>
       <c r="F1" s="211"/>
     </row>
-    <row r="3" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D3" s="177" t="s">
         <v>33</v>
       </c>
@@ -3098,7 +3101,7 @@
       <c r="G3" s="190"/>
       <c r="H3" s="190"/>
     </row>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D4" s="179" t="s">
         <v>10</v>
       </c>
@@ -3111,7 +3114,7 @@
       <c r="G4" s="100"/>
       <c r="H4" s="100"/>
     </row>
-    <row r="5" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D5" s="180"/>
       <c r="E5" s="165" t="s">
         <v>13</v>
@@ -3122,14 +3125,14 @@
       <c r="G5" s="100"/>
       <c r="H5" s="100"/>
     </row>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D6" s="180"/>
       <c r="E6" s="198"/>
       <c r="F6" s="199"/>
       <c r="G6" s="99"/>
       <c r="H6" s="100"/>
     </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D7" s="180"/>
       <c r="E7" s="67" t="s">
         <v>85</v>
@@ -3141,14 +3144,14 @@
       <c r="G7" s="182"/>
       <c r="H7" s="100"/>
     </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D8" s="181"/>
       <c r="E8" s="195"/>
       <c r="F8" s="196"/>
       <c r="G8" s="197"/>
       <c r="H8" s="100"/>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D9" s="232" t="s">
         <v>86</v>
       </c>
@@ -3159,15 +3162,18 @@
         <v>90737.240075614376</v>
       </c>
       <c r="H9" s="100"/>
-    </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D10" s="97"/>
       <c r="E10" s="194"/>
       <c r="F10" s="194"/>
       <c r="G10" s="99"/>
       <c r="H10" s="100"/>
     </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D11" s="233" t="s">
         <v>87</v>
       </c>
@@ -3178,14 +3184,14 @@
       </c>
       <c r="H11" s="100"/>
     </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D12" s="191"/>
       <c r="E12" s="192"/>
       <c r="F12" s="192"/>
       <c r="G12" s="193"/>
       <c r="H12" s="100"/>
     </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D13" s="216" t="s">
         <v>94</v>
       </c>
@@ -3199,14 +3205,14 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D14" s="101"/>
       <c r="E14" s="98"/>
       <c r="F14" s="98"/>
       <c r="G14" s="99"/>
       <c r="H14" s="99"/>
     </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D16" s="211" t="s">
         <v>77</v>
       </c>

--- a/SEMANA 7/26 de octubre.xlsx
+++ b/SEMANA 7/26 de octubre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kick\Desktop\MATEMATICAS FINANCIERA\prueba\MF\SEMANA 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27537BBE-D523-475C-8130-5166A2B6989B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B204B65-1568-4D65-9BCC-A2A15192B154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="16" activeTab="17" xr2:uid="{E581A421-F443-4CC0-8F82-30A63A821E48}"/>
+    <workbookView xWindow="9012" yWindow="24" windowWidth="13968" windowHeight="12312" firstSheet="16" activeTab="17" xr2:uid="{E581A421-F443-4CC0-8F82-30A63A821E48}"/>
   </bookViews>
   <sheets>
     <sheet name="Interes compuesto" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="99">
   <si>
     <t>Interes compuesto</t>
   </si>
@@ -344,6 +344,9 @@
   </si>
   <si>
     <t>prueba 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         </t>
   </si>
 </sst>
 </file>
@@ -3070,8 +3073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9ABCC6-12C9-4941-9007-839BA2C5C7B1}">
   <dimension ref="D1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3218,6 +3221,9 @@
       </c>
       <c r="E16" s="211"/>
       <c r="F16" s="211"/>
+      <c r="G16" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E17" s="22"/>
@@ -3332,7 +3338,7 @@
       </c>
       <c r="F26" s="231"/>
       <c r="G26" s="204">
-        <v>350000</v>
+        <v>400000</v>
       </c>
       <c r="H26" s="201"/>
     </row>
@@ -3344,7 +3350,7 @@
       <c r="F27" s="229"/>
       <c r="G27" s="204">
         <f>G25-G26</f>
-        <v>205792.18294460629</v>
+        <v>155792.18294460629</v>
       </c>
       <c r="H27" s="230" t="s">
         <v>96</v>

--- a/SEMANA 7/26 de octubre.xlsx
+++ b/SEMANA 7/26 de octubre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kick\Desktop\MATEMATICAS FINANCIERA\prueba\MF\SEMANA 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B204B65-1568-4D65-9BCC-A2A15192B154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9EF8D1-D50B-41B8-9F1E-B9DBFFC3B42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9012" yWindow="24" windowWidth="13968" windowHeight="12312" firstSheet="16" activeTab="17" xr2:uid="{E581A421-F443-4CC0-8F82-30A63A821E48}"/>
+    <workbookView xWindow="9012" yWindow="24" windowWidth="13968" windowHeight="12312" firstSheet="16" activeTab="18" xr2:uid="{E581A421-F443-4CC0-8F82-30A63A821E48}"/>
   </bookViews>
   <sheets>
     <sheet name="Interes compuesto" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="CASO 1 inflacion" sheetId="16" r:id="rId16"/>
     <sheet name="INFLACION CASO 2" sheetId="17" r:id="rId17"/>
     <sheet name="EJERCICIO INFLACION" sheetId="18" r:id="rId18"/>
+    <sheet name="TIEMPO" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="103">
   <si>
     <t>Interes compuesto</t>
   </si>
@@ -347,6 +348,18 @@
   </si>
   <si>
     <t xml:space="preserve">         </t>
+  </si>
+  <si>
+    <t>TIEMPO</t>
+  </si>
+  <si>
+    <t>Log factor</t>
+  </si>
+  <si>
+    <t>log (1+i)</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -1466,7 +1479,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1759,6 +1772,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
@@ -2899,7 +2913,7 @@
   <dimension ref="C1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:G14"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3073,8 +3087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9ABCC6-12C9-4941-9007-839BA2C5C7B1}">
   <dimension ref="D1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3196,7 +3210,7 @@
     </row>
     <row r="13" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D13" s="216" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E13" s="217"/>
       <c r="F13" s="217"/>
@@ -3345,7 +3359,7 @@
     <row r="27" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D27" s="124"/>
       <c r="E27" s="228" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F27" s="229"/>
       <c r="G27" s="204">
@@ -3381,6 +3395,44 @@
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="E25:F25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75FCCCA-1589-4EA5-9B03-57E5F302F6A4}">
+  <dimension ref="C1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D1" s="211" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="234" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SEMANA 7/26 de octubre.xlsx
+++ b/SEMANA 7/26 de octubre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kick\Desktop\MATEMATICAS FINANCIERA\prueba\MF\SEMANA 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9EF8D1-D50B-41B8-9F1E-B9DBFFC3B42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ADD475-38C2-4761-8D44-6233D1FC835C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9012" yWindow="24" windowWidth="13968" windowHeight="12312" firstSheet="16" activeTab="18" xr2:uid="{E581A421-F443-4CC0-8F82-30A63A821E48}"/>
+    <workbookView xWindow="9012" yWindow="24" windowWidth="13968" windowHeight="12312" firstSheet="17" activeTab="19" xr2:uid="{E581A421-F443-4CC0-8F82-30A63A821E48}"/>
   </bookViews>
   <sheets>
     <sheet name="Interes compuesto" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="INFLACION CASO 2" sheetId="17" r:id="rId17"/>
     <sheet name="EJERCICIO INFLACION" sheetId="18" r:id="rId18"/>
     <sheet name="TIEMPO" sheetId="19" r:id="rId19"/>
+    <sheet name="Hoja2" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="106">
   <si>
     <t>Interes compuesto</t>
   </si>
@@ -360,6 +361,15 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>23,95 meses</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>respuesta numerica en examen</t>
   </si>
 </sst>
 </file>
@@ -461,7 +471,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="83">
+  <borders count="89">
     <border>
       <left/>
       <right/>
@@ -1471,6 +1481,82 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1479,7 +1565,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1773,6 +1859,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="71" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="71" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="87" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="86" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
@@ -3402,10 +3499,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75FCCCA-1589-4EA5-9B03-57E5F302F6A4}">
-  <dimension ref="C1:F4"/>
+  <dimension ref="C1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3428,6 +3525,11 @@
     <row r="4" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3653,6 +3755,103 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAEE3EF-1593-4483-9997-BC98EBA1946D}">
+  <dimension ref="C2:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="26.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C2" s="212" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="207"/>
+      <c r="E2" s="213"/>
+    </row>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C3" s="82"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="84"/>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C4" s="240" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="236" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="235">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C5" s="241" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="237">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C6" s="241" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="238">
+        <f>0.36/12</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C7" s="243"/>
+      <c r="D7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="239" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C8" s="243"/>
+      <c r="D8" s="242" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="245">
+        <f>(LOG(E4/E5))/(LOG(1+E6))</f>
+        <v>23.449772250437736</v>
+      </c>
+      <c r="F8">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C9" s="244"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="84"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5828D03-B694-49C4-9807-85F3303BFAED}">
   <dimension ref="D2:F2"/>

--- a/SEMANA 7/26 de octubre.xlsx
+++ b/SEMANA 7/26 de octubre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kick\Desktop\MATEMATICAS FINANCIERA\prueba\MF\SEMANA 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ADD475-38C2-4761-8D44-6233D1FC835C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{058D8F67-CA0A-4245-BBB3-FE96111C9DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9012" yWindow="24" windowWidth="13968" windowHeight="12312" firstSheet="17" activeTab="19" xr2:uid="{E581A421-F443-4CC0-8F82-30A63A821E48}"/>
+    <workbookView xWindow="9012" yWindow="24" windowWidth="13968" windowHeight="12312" firstSheet="19" activeTab="20" xr2:uid="{E581A421-F443-4CC0-8F82-30A63A821E48}"/>
   </bookViews>
   <sheets>
     <sheet name="Interes compuesto" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,8 @@
     <sheet name="INFLACION CASO 2" sheetId="17" r:id="rId17"/>
     <sheet name="EJERCICIO INFLACION" sheetId="18" r:id="rId18"/>
     <sheet name="TIEMPO" sheetId="19" r:id="rId19"/>
-    <sheet name="Hoja2" sheetId="20" r:id="rId20"/>
+    <sheet name="Ejercicio 1 tiempo logaritmo" sheetId="20" r:id="rId20"/>
+    <sheet name="Tiempo logaritmo Caso 2" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="109">
   <si>
     <t>Interes compuesto</t>
   </si>
@@ -370,6 +371,15 @@
   </si>
   <si>
     <t>respuesta numerica en examen</t>
+  </si>
+  <si>
+    <t>EJERCICIO 1 (Inciso 2)</t>
+  </si>
+  <si>
+    <t>EJERCICIO 2</t>
+  </si>
+  <si>
+    <t>EJERCICIO 3</t>
   </si>
 </sst>
 </file>
@@ -1565,7 +1575,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="257">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1867,9 +1877,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="87" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="86" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="87" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="86" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="71" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="71" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="87" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="86" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
@@ -3757,10 +3778,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAEE3EF-1593-4483-9997-BC98EBA1946D}">
-  <dimension ref="C2:G9"/>
+  <dimension ref="C2:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3815,7 +3836,7 @@
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C7" s="243"/>
+      <c r="C7" s="244"/>
       <c r="D7" s="22" t="s">
         <v>13</v>
       </c>
@@ -3824,11 +3845,11 @@
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C8" s="243"/>
+      <c r="C8" s="244"/>
       <c r="D8" s="242" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="245">
+      <c r="E8" s="246">
         <f>(LOG(E4/E5))/(LOG(1+E6))</f>
         <v>23.449772250437736</v>
       </c>
@@ -3840,15 +3861,322 @@
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C9" s="244"/>
+      <c r="C9" s="245"/>
       <c r="D9" s="83"/>
       <c r="E9" s="84"/>
     </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C12" s="212" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="207"/>
+      <c r="E12" s="213"/>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C13" s="79"/>
+      <c r="D13" s="249"/>
+      <c r="E13" s="250"/>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C14" s="240" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="236" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="235">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C15" s="241" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="237">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C16" s="241" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="238">
+        <f>0.24/12</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="247"/>
+      <c r="D17" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="239" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="247"/>
+      <c r="D18" s="242" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="246">
+        <f>(LOG(E14/E15))/(LOG(1+E16))</f>
+        <v>35.002788781146499</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="248"/>
+      <c r="D19" s="249"/>
+      <c r="E19" s="250"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{801FD833-BF0D-4134-AC4F-8E83465D523A}">
+  <dimension ref="C2:E29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="34.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C2" s="212" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="207"/>
+      <c r="E2" s="213"/>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C3" s="82"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="84"/>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="240" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="236" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C5" s="241" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="251">
+        <f>E4*0.5</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="241" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="238">
+        <f>E5</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="244"/>
+      <c r="D7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="239" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="244"/>
+      <c r="D8" s="242" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="243">
+        <f>(LOG(E4/E5))/(LOG(1+E6))</f>
+        <v>1.7095112913514547</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="245"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="84"/>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C12" s="212" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="207"/>
+      <c r="E12" s="213"/>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C13" s="253"/>
+      <c r="D13" s="195"/>
+      <c r="E13" s="254"/>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C14" s="240" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="236" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C15" s="241" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="251">
+        <f>E14*0.5</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C16" s="241" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="252">
+        <f>0.3</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="255"/>
+      <c r="D17" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="239" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="255"/>
+      <c r="D18" s="242" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="243">
+        <f>(LOG(E14/E15))/(LOG(1+E16))</f>
+        <v>2.6419267958111399</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="256"/>
+      <c r="D19" s="195"/>
+      <c r="E19" s="254"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="212" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="207"/>
+      <c r="E22" s="213"/>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="79"/>
+      <c r="D23" s="249"/>
+      <c r="E23" s="250"/>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="240" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="236" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C25" s="241" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="251">
+        <f>E24*0.5</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C26" s="241" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C27" s="247"/>
+      <c r="D27" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="239" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C28" s="247"/>
+      <c r="D28" s="242" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="243">
+        <f>(LOG(E24/E25))/(LOG(1+E26))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C29" s="248"/>
+      <c r="D29" s="249"/>
+      <c r="E29" s="250"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C22:E22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
